--- a/src/loadFiles/update company/occurences_clients Z.xlsx
+++ b/src/loadFiles/update company/occurences_clients Z.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_D8C4EFE4D5B373330C1F4A3DF6E3D5500ADA046E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7DE599D-B81A-4DC2-9D96-84B31D8A5A48}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_D8C4EFE4D5B373330C1F4A3DF6E3D5500ADA046E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE81BDCA-D16C-4AA6-A5BD-A65353B2F5B4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>DISPLAY_NAME</t>
   </si>
   <si>
-    <t>COMPANY</t>
+    <t>COMPANY_BREAKDOWN</t>
   </si>
   <si>
     <t>NRB_MANAGED_BY</t>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1503,15 +1503,18 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 A16:I17 A2:I2 K2:N2 A3:I3 K3:N3 A4:I4 K4:N4 A5:I5 K5:N5 A6:I6 K6:N6 A7:I7 K7:N7 A8:I9 K8:N9 A10:I10 K10:N10 A11:I11 K11:N11 A12:I12 K12:N12 A13:I13 K13:N13 A14:I14 K14:N14 A15:I15 K15:N15 K16:N17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 A16:I17 A2:I2 K2:N2 A3:I3 K3:N3 A4:I4 K4:N4 A5:I5 K5:N5 A6:I6 K6:N6 A7:I7 K7:N7 A8:I9 K8:N9 A10:I10 K10:N10 A11:I11 K11:N11 A12:I12 K12:N12 A13:I13 K13:N13 A14:I14 K14:N14 A15:I15 K15:N15 K16:N17 K1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1673,16 +1676,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5E49E4-D247-4568-8FA8-AFF025B2E713}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E00896D-D490-4953-A3D4-73C6B9A1ABE7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1690,5 +1690,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E00896D-D490-4953-A3D4-73C6B9A1ABE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5E49E4-D247-4568-8FA8-AFF025B2E713}"/>
 </file>
--- a/src/loadFiles/update company/occurences_clients Z.xlsx
+++ b/src/loadFiles/update company/occurences_clients Z.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23930"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_D8C4EFE4D5B373330C1F4A3DF6E3D5500ADA046E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE81BDCA-D16C-4AA6-A5BD-A65353B2F5B4}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_D8C4EFE4D5B373330C1F4A3DF6E3D5500ADA046E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5BE9B231-1D91-405F-A025-DB11D6479524}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="113">
   <si>
     <t>__EMPTY</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Z_MQP1</t>
   </si>
   <si>
-    <t>ETHIAS,AME LIFE</t>
+    <t>ETHIAS,AME-LIFE</t>
   </si>
   <si>
     <t>MQ Series Production mutualisé</t>
@@ -271,7 +271,7 @@
     <t>Z_IPD1</t>
   </si>
   <si>
-    <t>RESA,PLG</t>
+    <t>RESA,PROVINCE LIEGE</t>
   </si>
   <si>
     <t>IMS production mutualisé GIAL</t>
@@ -301,7 +301,7 @@
     <t>Z_IHA1</t>
   </si>
   <si>
-    <t xml:space="preserve">ETHIAS,AME LIFE,RESA,PLG </t>
+    <t xml:space="preserve">ETHIAS,AME-LIFE,RESA,PROVINCE LIEGE </t>
   </si>
   <si>
     <t>IMS homologation mutualisé</t>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Z_IDA1</t>
+  </si>
+  <si>
+    <t>ETHIAS,AME-LIFE,RESA,PROVINCE LIEGE</t>
   </si>
   <si>
     <t>IMS développement mutualisé</t>
@@ -741,7 +744,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,7 +752,7 @@
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="26.25" customWidth="1"/>
+    <col min="10" max="10" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1353,7 +1356,7 @@
         <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
@@ -1365,24 +1368,24 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1391,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -1409,24 +1412,24 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1435,13 +1438,13 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
         <v>24</v>
@@ -1453,24 +1456,24 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1479,13 +1482,13 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>
@@ -1497,7 +1500,7 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1509,6 +1512,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1517,7 +1526,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dac29f0e060d0d9828bc78d020c13bcb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b817bc98c5af290a1e56b966b0fd4bba" ns2:_="">
     <xsd:import namespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134"/>
@@ -1675,20 +1684,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5E49E4-D247-4568-8FA8-AFF025B2E713}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E00896D-D490-4953-A3D4-73C6B9A1ABE7}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE7939B-715D-42E4-BEA4-5ABBFC92B18E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5E49E4-D247-4568-8FA8-AFF025B2E713}"/>
 </file>